--- a/R/HW/Gorbaremko_3/polluters.xlsx
+++ b/R/HW/Gorbaremko_3/polluters.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -400,8 +400,10 @@
           <t>Уральский федеральный округ</t>
         </is>
       </c>
-      <c r="C2">
-        <v>2005</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D2">
         <v>3024</v>
@@ -424,8 +426,10 @@
           <t>Уральский федеральный округ</t>
         </is>
       </c>
-      <c r="C3">
-        <v>2012</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D3">
         <v>2430</v>
@@ -448,8 +452,10 @@
           <t>Уральский федеральный округ</t>
         </is>
       </c>
-      <c r="C4">
-        <v>2011</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D4">
         <v>2353</v>
@@ -472,8 +478,10 @@
           <t>Уральский федеральный округ</t>
         </is>
       </c>
-      <c r="C5">
-        <v>2010</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D5">
         <v>2129</v>
@@ -496,8 +504,10 @@
           <t>Уральский федеральный округ</t>
         </is>
       </c>
-      <c r="C6">
-        <v>2013</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D6">
         <v>1866</v>
@@ -520,8 +530,10 @@
           <t>Уральский федеральный округ</t>
         </is>
       </c>
-      <c r="C7">
-        <v>2014</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D7">
         <v>1467</v>
@@ -544,8 +556,10 @@
           <t>Уральский федеральный округ</t>
         </is>
       </c>
-      <c r="C8">
-        <v>2016</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D8">
         <v>1428</v>
@@ -568,8 +582,10 @@
           <t>Уральский федеральный округ</t>
         </is>
       </c>
-      <c r="C9">
-        <v>2015</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D9">
         <v>1388</v>
@@ -592,8 +608,10 @@
           <t>Северо-Западный федеральный округ</t>
         </is>
       </c>
-      <c r="C10">
-        <v>2013</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D10">
         <v>774</v>
@@ -616,8 +634,10 @@
           <t>Северо-Западный федеральный округ</t>
         </is>
       </c>
-      <c r="C11">
-        <v>2011</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D11">
         <v>712</v>
@@ -640,8 +660,10 @@
           <t>Северо-Западный федеральный округ</t>
         </is>
       </c>
-      <c r="C12">
-        <v>2005</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D12">
         <v>671</v>
@@ -664,8 +686,10 @@
           <t>Северо-Западный федеральный округ</t>
         </is>
       </c>
-      <c r="C13">
-        <v>2014</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D13">
         <v>707</v>
@@ -688,8 +712,10 @@
           <t>Северо-Западный федеральный округ</t>
         </is>
       </c>
-      <c r="C14">
-        <v>2010</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D14">
         <v>282</v>
@@ -712,8 +738,10 @@
           <t>Северо-Западный федеральный округ</t>
         </is>
       </c>
-      <c r="C15">
-        <v>2012</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D15">
         <v>688</v>
@@ -736,8 +764,10 @@
           <t>Северо-Западный федеральный округ</t>
         </is>
       </c>
-      <c r="C16">
-        <v>2015</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D16">
         <v>612</v>
@@ -760,8 +790,10 @@
           <t>Северо-Западный федеральный округ</t>
         </is>
       </c>
-      <c r="C17">
-        <v>2016</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D17">
         <v>569</v>
@@ -784,8 +816,10 @@
           <t>Приволжский федеральный округ</t>
         </is>
       </c>
-      <c r="C18">
-        <v>2012</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D18">
         <v>172</v>
@@ -808,8 +842,10 @@
           <t>Приволжский федеральный округ</t>
         </is>
       </c>
-      <c r="C19">
-        <v>2013</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D19">
         <v>172</v>
@@ -832,8 +868,10 @@
           <t>Южный федеральный округ</t>
         </is>
       </c>
-      <c r="C20">
-        <v>2012</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D20">
         <v>134</v>
@@ -856,8 +894,10 @@
           <t>Южный федеральный округ</t>
         </is>
       </c>
-      <c r="C21">
-        <v>2011</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D21">
         <v>132</v>
@@ -880,8 +920,10 @@
           <t>Южный федеральный округ</t>
         </is>
       </c>
-      <c r="C22">
-        <v>2013</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D22">
         <v>130</v>
@@ -904,8 +946,10 @@
           <t>Южный федеральный округ</t>
         </is>
       </c>
-      <c r="C23">
-        <v>2016</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D23">
         <v>127</v>
@@ -928,8 +972,10 @@
           <t>Южный федеральный округ</t>
         </is>
       </c>
-      <c r="C24">
-        <v>2015</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D24">
         <v>119</v>
@@ -952,8 +998,10 @@
           <t>Южный федеральный округ</t>
         </is>
       </c>
-      <c r="C25">
-        <v>2014</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D25">
         <v>118</v>
@@ -976,8 +1024,10 @@
           <t>Южный федеральный округ</t>
         </is>
       </c>
-      <c r="C26">
-        <v>2010</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D26">
         <v>125</v>
@@ -1000,8 +1050,10 @@
           <t>Приволжский федеральный округ</t>
         </is>
       </c>
-      <c r="C27">
-        <v>2005</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D27">
         <v>906</v>
@@ -1024,8 +1076,10 @@
           <t>Южный федеральный округ</t>
         </is>
       </c>
-      <c r="C28">
-        <v>2005</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D28">
         <v>131</v>
@@ -1048,8 +1102,10 @@
           <t>Сибирский федеральный округ</t>
         </is>
       </c>
-      <c r="C29">
-        <v>2016</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D29">
         <v>301</v>
@@ -1072,8 +1128,10 @@
           <t>Приволжский федеральный округ</t>
         </is>
       </c>
-      <c r="C30">
-        <v>2014</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D30">
         <v>176</v>
@@ -1096,8 +1154,10 @@
           <t>Приволжский федеральный округ</t>
         </is>
       </c>
-      <c r="C31">
-        <v>2011</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D31">
         <v>104</v>
@@ -1120,8 +1180,10 @@
           <t>Приволжский федеральный округ</t>
         </is>
       </c>
-      <c r="C32">
-        <v>2010</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D32">
         <v>101</v>
@@ -1144,8 +1206,10 @@
           <t>Приволжский федеральный округ</t>
         </is>
       </c>
-      <c r="C33">
-        <v>2015</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D33">
         <v>148</v>
@@ -1168,8 +1232,10 @@
           <t>Сибирский федеральный округ</t>
         </is>
       </c>
-      <c r="C34">
-        <v>2015</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D34">
         <v>293</v>
@@ -1192,8 +1258,10 @@
           <t>Северо-Кавказский федеральный округ</t>
         </is>
       </c>
-      <c r="C35">
-        <v>2005</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D35">
         <v>58</v>
@@ -1216,8 +1284,10 @@
           <t>Центральный федеральный округ</t>
         </is>
       </c>
-      <c r="C36">
-        <v>2011</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D36">
         <v>67</v>
@@ -1240,8 +1310,10 @@
           <t>Центральный федеральный округ</t>
         </is>
       </c>
-      <c r="C37">
-        <v>2013</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D37">
         <v>54</v>
@@ -1264,8 +1336,10 @@
           <t>Центральный федеральный округ</t>
         </is>
       </c>
-      <c r="C38">
-        <v>2014</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D38">
         <v>69</v>
@@ -1288,8 +1362,10 @@
           <t>Центральный федеральный округ</t>
         </is>
       </c>
-      <c r="C39">
-        <v>2012</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D39">
         <v>52</v>
@@ -1312,8 +1388,10 @@
           <t>Центральный федеральный округ</t>
         </is>
       </c>
-      <c r="C40">
-        <v>2015</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D40">
         <v>91</v>
@@ -1336,8 +1414,10 @@
           <t>Центральный федеральный округ</t>
         </is>
       </c>
-      <c r="C41">
-        <v>2016</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D41">
         <v>56</v>
@@ -1360,8 +1440,10 @@
           <t>Приволжский федеральный округ</t>
         </is>
       </c>
-      <c r="C42">
-        <v>2016</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D42">
         <v>150</v>
@@ -1384,8 +1466,10 @@
           <t>Центральный федеральный округ</t>
         </is>
       </c>
-      <c r="C43">
-        <v>2010</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D43">
         <v>46</v>
@@ -1408,8 +1492,10 @@
           <t>Дальневосточный федеральный округ</t>
         </is>
       </c>
-      <c r="C44">
-        <v>2005</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D44">
         <v>41</v>
@@ -1432,8 +1518,10 @@
           <t>Сибирский федеральный округ</t>
         </is>
       </c>
-      <c r="C45">
-        <v>2005</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D45">
         <v>281</v>
@@ -1456,8 +1544,10 @@
           <t>Центральный федеральный округ</t>
         </is>
       </c>
-      <c r="C46">
-        <v>2005</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D46">
         <v>93</v>
@@ -1480,8 +1570,10 @@
           <t>Дальневосточный федеральный округ</t>
         </is>
       </c>
-      <c r="C47">
-        <v>2015</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D47">
         <v>72</v>
@@ -1504,8 +1596,10 @@
           <t>Дальневосточный федеральный округ</t>
         </is>
       </c>
-      <c r="C48">
-        <v>2010</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D48">
         <v>37</v>
@@ -1528,8 +1622,10 @@
           <t>Северо-Кавказский федеральный округ</t>
         </is>
       </c>
-      <c r="C49">
-        <v>2014</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D49">
         <v>31</v>
@@ -1552,8 +1648,10 @@
           <t>Дальневосточный федеральный округ</t>
         </is>
       </c>
-      <c r="C50">
-        <v>2012</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D50">
         <v>34</v>
@@ -1576,8 +1674,10 @@
           <t>Сибирский федеральный округ</t>
         </is>
       </c>
-      <c r="C51">
-        <v>2011</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D51">
         <v>379</v>
@@ -1600,8 +1700,10 @@
           <t>Дальневосточный федеральный округ</t>
         </is>
       </c>
-      <c r="C52">
-        <v>2011</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D52">
         <v>31</v>
@@ -1624,8 +1726,10 @@
           <t>Дальневосточный федеральный округ</t>
         </is>
       </c>
-      <c r="C53">
-        <v>2016</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D53">
         <v>77</v>
@@ -1648,8 +1752,10 @@
           <t>Северо-Кавказский федеральный округ</t>
         </is>
       </c>
-      <c r="C54">
-        <v>2010</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D54">
         <v>25</v>
@@ -1672,8 +1778,10 @@
           <t>Дальневосточный федеральный округ</t>
         </is>
       </c>
-      <c r="C55">
-        <v>2013</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D55">
         <v>33</v>
@@ -1696,8 +1804,10 @@
           <t>Северо-Кавказский федеральный округ</t>
         </is>
       </c>
-      <c r="C56">
-        <v>2015</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D56">
         <v>85</v>
@@ -1720,8 +1830,10 @@
           <t>Северо-Кавказский федеральный округ</t>
         </is>
       </c>
-      <c r="C57">
-        <v>2016</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D57">
         <v>88</v>
@@ -1744,8 +1856,10 @@
           <t>Сибирский федеральный округ</t>
         </is>
       </c>
-      <c r="C58">
-        <v>2013</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D58">
         <v>306</v>
@@ -1768,8 +1882,10 @@
           <t>Северо-Кавказский федеральный округ</t>
         </is>
       </c>
-      <c r="C59">
-        <v>2011</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D59">
         <v>20</v>
@@ -1792,8 +1908,10 @@
           <t>Северо-Кавказский федеральный округ</t>
         </is>
       </c>
-      <c r="C60">
-        <v>2013</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D60">
         <v>21</v>
@@ -1816,8 +1934,10 @@
           <t>Дальневосточный федеральный округ</t>
         </is>
       </c>
-      <c r="C61">
-        <v>2014</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D61">
         <v>23</v>
@@ -1840,8 +1960,10 @@
           <t>Северо-Кавказский федеральный округ</t>
         </is>
       </c>
-      <c r="C62">
-        <v>2012</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D62">
         <v>18</v>
@@ -1864,8 +1986,10 @@
           <t>Сибирский федеральный округ</t>
         </is>
       </c>
-      <c r="C63">
-        <v>2014</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D63">
         <v>8</v>
@@ -1888,8 +2012,10 @@
           <t>Сибирский федеральный округ</t>
         </is>
       </c>
-      <c r="C64">
-        <v>2010</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D64">
         <v>6</v>
@@ -1912,8 +2038,10 @@
           <t>Сибирский федеральный округ</t>
         </is>
       </c>
-      <c r="C65">
-        <v>2012</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D65">
         <v>20</v>
